--- a/bang phan cong cong viec.xlsx
+++ b/bang phan cong cong viec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Dinh Phong\Desktop\Lap Trinh Co So Du Lieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Dinh Phong\Downloads\QuanLyRapChieuPhim_LTCSDL-master\QuanLyRapChieuPhim_LTCSDL-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -119,6 +119,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,7 +406,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -431,12 +434,17 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
         <v>4</v>
       </c>
     </row>
@@ -444,35 +452,56 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
